--- a/data/trans_camb/P2A_enfcro_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.722739285484373</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-8.289927767365052</v>
+        <v>-8.289927767365057</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>8.177247814159694</v>
@@ -655,7 +655,7 @@
         <v>2.690709432454186</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-15.68050905763506</v>
+        <v>-15.68050905763505</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10.71496641800123</v>
@@ -664,7 +664,7 @@
         <v>3.726465385644095</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-11.85859046624392</v>
+        <v>-11.85859046624393</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.667034449023652</v>
+        <v>7.608275083014256</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8368626073267611</v>
+        <v>-0.5586627842698222</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.79777379518174</v>
+        <v>-13.50482513035961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.02942819434872</v>
+        <v>2.790234705726638</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.30588929088191</v>
+        <v>-2.514917661666878</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-20.03500231050269</v>
+        <v>-20.47192163613851</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.015502269875305</v>
+        <v>6.839760569224302</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1007288360963746</v>
+        <v>0.007814639856896254</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-15.71518930948021</v>
+        <v>-15.58568004087542</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.88373647482758</v>
+        <v>18.07013762752971</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.0556832660726</v>
+        <v>9.654409079631723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.390852855630569</v>
+        <v>-2.732368422848339</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.30671288400093</v>
+        <v>12.89779376199221</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.822244039495543</v>
+        <v>8.429556307032241</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-11.01850048892471</v>
+        <v>-10.97269389002467</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.46777891314745</v>
+        <v>14.45113608681429</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.857077857121952</v>
+        <v>7.698543723558188</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-8.503958901971563</v>
+        <v>-8.325449302120756</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1031658876201639</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1810893434358921</v>
+        <v>-0.1810893434358922</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1371724182840358</v>
@@ -760,7 +760,7 @@
         <v>0.04513635004558493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2630387871621036</v>
+        <v>-0.2630387871621034</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2034467303209217</v>
@@ -769,7 +769,7 @@
         <v>0.07075497661753818</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2251608976131748</v>
+        <v>-0.2251608976131749</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1608702147901852</v>
+        <v>0.1525701984136865</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01736396028503674</v>
+        <v>-0.01113428568068694</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2827075591422424</v>
+        <v>-0.2796923274986424</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04920320228342035</v>
+        <v>0.04454204875492842</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03764973135473921</v>
+        <v>-0.04135095696723198</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3255235827197024</v>
+        <v>-0.3273270459892032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1272285728502104</v>
+        <v>0.1260095198920528</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.001841264678522517</v>
+        <v>0.0001414592371466278</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2893299887575318</v>
+        <v>-0.2899688828426617</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4442260548325899</v>
+        <v>0.4201060746719288</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2351677615259968</v>
+        <v>0.225639869172011</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.07584470450013944</v>
+        <v>-0.06398648624232892</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2348135726379332</v>
+        <v>0.2275810257670713</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.137164088584982</v>
+        <v>0.1468352816525705</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1955251902157417</v>
+        <v>-0.1943815010386568</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2881917410129776</v>
+        <v>0.2858524382016978</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1535253674568168</v>
+        <v>0.150475533724063</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1671927333884672</v>
+        <v>-0.1636073725930649</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>2.657156427344309</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-14.80369991176104</v>
+        <v>-14.80369991176103</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.763241849906987</v>
+        <v>2.571904191311644</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7844609597954103</v>
+        <v>-1.216697910121405</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-15.51814108213144</v>
+        <v>-15.13047441596944</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.463354749953786</v>
+        <v>2.207239718930662</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.55603832631081</v>
+        <v>-2.765390396831624</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-23.03166941764965</v>
+        <v>-23.16056636600618</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.547860256945826</v>
+        <v>3.543668214968863</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.403849977967622</v>
+        <v>-0.4607165929307222</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-17.96377605978831</v>
+        <v>-17.86969511713255</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.56162577505838</v>
+        <v>11.84504821482444</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.68548045898951</v>
+        <v>7.889051126589666</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.087935917417755</v>
+        <v>-6.22480738329672</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.90906935052513</v>
+        <v>10.64637018568847</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.989204075900102</v>
+        <v>6.330070674264072</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-14.80111720682094</v>
+        <v>-14.73745244167111</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.03141116947301</v>
+        <v>9.987829364897118</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.156412387424735</v>
+        <v>6.287113562731318</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-11.97468141944275</v>
+        <v>-11.47176247788894</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.049377258656131</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2750933712778555</v>
+        <v>-0.2750933712778554</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.03649934269223688</v>
+        <v>0.05541254024718904</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01701522456422283</v>
+        <v>-0.02582456341170054</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3243396619744088</v>
+        <v>-0.3204570132151704</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03899622076967618</v>
+        <v>0.03552871643949599</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03956797017614712</v>
+        <v>-0.04233609420363588</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3579660557870181</v>
+        <v>-0.3595250941040212</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06406054961933413</v>
+        <v>0.06359604992963626</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.007372208854865718</v>
+        <v>-0.008003914110930314</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3235761474875917</v>
+        <v>-0.3239934788325016</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2721176644194742</v>
+        <v>0.279418145261487</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2020449445594768</v>
+        <v>0.1831886191286032</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1413799113995419</v>
+        <v>-0.1435323415672168</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1837195056256889</v>
+        <v>0.1790855453445973</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1003369900720823</v>
+        <v>0.1061052163248823</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2470840962361789</v>
+        <v>-0.2469272205157244</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.192530726455077</v>
+        <v>0.1953612207142184</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1177078586648342</v>
+        <v>0.1227054144432421</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2275359786223501</v>
+        <v>-0.2186717921790962</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.08734877709474231</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-20.18557218384911</v>
+        <v>-20.18557218384912</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.453143508443402</v>
+        <v>-1.479770577905343</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.837240849087857</v>
+        <v>-3.351313538404266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-19.70677022839574</v>
+        <v>-19.59538901972564</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.005191653529424</v>
+        <v>0.9720332346559675</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.265902519898878</v>
+        <v>-7.134049927002878</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-30.58133423739069</v>
+        <v>-30.77146449547614</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.444521156677651</v>
+        <v>1.251901208084856</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.678012947832709</v>
+        <v>-3.764118177218954</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-24.0856875836769</v>
+        <v>-23.90986978505304</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.643577448250085</v>
+        <v>9.288611017570506</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.588982019286024</v>
+        <v>7.301225406288332</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-9.288828779860294</v>
+        <v>-8.750844283902378</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.18854486303898</v>
+        <v>11.76311063071515</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.043927546060124</v>
+        <v>3.082633794732276</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-21.00795983386952</v>
+        <v>-20.96323413006078</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.490509967957012</v>
+        <v>8.716552161397271</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.817625932616774</v>
+        <v>3.751759512407034</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-16.50615191730988</v>
+        <v>-16.35007591939886</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.001662393858738074</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3841653237703391</v>
+        <v>-0.3841653237703392</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03291927362195404</v>
+        <v>-0.0293651830342889</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06119493329569319</v>
+        <v>-0.0700062787332458</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4169069936290186</v>
+        <v>-0.4147904927114675</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01615461701263243</v>
+        <v>0.01504287205362603</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1151775901832027</v>
+        <v>-0.1129638001156206</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.489038766365437</v>
+        <v>-0.4907626458114184</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02632779007313276</v>
+        <v>0.02181856518198082</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.06752740016730273</v>
+        <v>-0.0690631705241347</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4402061684591048</v>
+        <v>-0.4354987636061921</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2285763201122455</v>
+        <v>0.2273985838722039</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1787562740529204</v>
+        <v>0.1712489277859206</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2177395085977346</v>
+        <v>-0.2085031908723088</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1958933127491685</v>
+        <v>0.207549934136152</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05359012289185277</v>
+        <v>0.05322652521749851</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3693807749531628</v>
+        <v>-0.3662465152042288</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1889702505109682</v>
+        <v>0.1709519818930123</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07748987804915818</v>
+        <v>0.07346995880248448</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3268024059297808</v>
+        <v>-0.3230302880582026</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>5.465147073163445</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-17.22641800101229</v>
+        <v>-17.22641800101228</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.931679370669046</v>
+        <v>9.218816968974314</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.914537222321722</v>
+        <v>5.583517295227949</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.54187242402469</v>
+        <v>-16.95168415118474</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.337961667776936</v>
+        <v>3.230021616362939</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.569217969921635</v>
+        <v>-2.852964162755219</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-25.43545223398258</v>
+        <v>-25.87688968094401</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.393723082834583</v>
+        <v>7.458833543994389</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.31128547948058</v>
+        <v>2.134464635539151</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-20.24168729792531</v>
+        <v>-20.06157449785372</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.59654997032752</v>
+        <v>18.28458196435185</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.87968090055926</v>
+        <v>14.80774920498967</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-8.198728138560393</v>
+        <v>-7.692080791677645</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.01289069987602</v>
+        <v>11.79859850979383</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.06834221597103</v>
+        <v>5.461510125776093</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-17.48070943423978</v>
+        <v>-18.06715578017403</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>13.54097192597914</v>
+        <v>13.87567997497364</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.085912326656109</v>
+        <v>8.566166137720623</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-14.59441496551668</v>
+        <v>-13.77898912764291</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1069733600069635</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3371854022925784</v>
+        <v>-0.3371854022925783</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2012225390174071</v>
+        <v>0.2080647213538907</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.129848209165689</v>
+        <v>0.1286423013212215</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3760766574228628</v>
+        <v>-0.3796022594294418</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.05064436617217141</v>
+        <v>0.05204101135220337</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.0584119473273633</v>
+        <v>-0.04588956045713739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4154024624147883</v>
+        <v>-0.4195714803577449</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1404718653895158</v>
+        <v>0.1418609735693627</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.04386069850869907</v>
+        <v>0.04012453219288165</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3852250341654101</v>
+        <v>-0.3829390583994211</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4615851563023855</v>
+        <v>0.4656213844183181</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3702384884642359</v>
+        <v>0.3759486718497633</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.200563086542688</v>
+        <v>-0.187281742575511</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2075374428939369</v>
+        <v>0.2073470428900372</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08918632160918187</v>
+        <v>0.09681484519179796</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3056473942407106</v>
+        <v>-0.3123853941822404</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2743671325627777</v>
+        <v>0.283453849527658</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1646574799505816</v>
+        <v>0.1745761923031324</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2939583451810874</v>
+        <v>-0.2806278652007477</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.128400282217416</v>
+        <v>6.97971005041271</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.941750822230564</v>
+        <v>2.994427414760397</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.96663987759756</v>
+        <v>-13.90813571248935</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.877688901300282</v>
+        <v>4.934596753459911</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.293165092596736</v>
+        <v>-1.339119236010929</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-22.96494137199211</v>
+        <v>-22.59935265900351</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.629471754229825</v>
+        <v>6.617307866089862</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.298946906732802</v>
+        <v>1.361878455182794</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-17.76069577420958</v>
+        <v>-17.72488897209104</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.01601455899035</v>
+        <v>12.04649934631054</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.727016952505291</v>
+        <v>7.784178342747322</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-9.026550180722198</v>
+        <v>-9.056520852579894</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.638685781970205</v>
+        <v>9.600897679286318</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.288775448332949</v>
+        <v>3.403714802603564</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-18.41907749139816</v>
+        <v>-18.47539421862913</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.01586625932303</v>
+        <v>10.1255061213395</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.843170367286774</v>
+        <v>4.879701161351945</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-14.52220682569919</v>
+        <v>-14.36228354104736</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1562003701094691</v>
+        <v>0.1539452055236408</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.06444703788917892</v>
+        <v>0.06680649670037425</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3063544612649821</v>
+        <v>-0.3055214054282663</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.07911501674574621</v>
+        <v>0.08007309476076822</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.02083603495227598</v>
+        <v>-0.02146642386824851</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.374530590891067</v>
+        <v>-0.3701539165024711</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1239129020072572</v>
+        <v>0.124221526481781</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02407619064649809</v>
+        <v>0.02569698190190597</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3320220005879309</v>
+        <v>-0.3331277156588693</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2783620311816938</v>
+        <v>0.2819498428857127</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1779752865258107</v>
+        <v>0.1833251150700982</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2085838218477214</v>
+        <v>-0.206389538062297</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1622094028748448</v>
+        <v>0.1632809460991245</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.05534550612231245</v>
+        <v>0.05779636534047361</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3121471415525132</v>
+        <v>-0.3116461794335342</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1944761682302179</v>
+        <v>0.1971467787513608</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.09368890438017309</v>
+        <v>0.09481914524578799</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2799864025494337</v>
+        <v>-0.2776682623901196</v>
       </c>
     </row>
     <row r="34">
